--- a/Control_proyecto.xlsx
+++ b/Control_proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -71,14 +71,139 @@
   </si>
   <si>
     <t>Los usuarios deben ser almacenados de forma dinamica en el codigo, utilizando el local storage.</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Alertas</t>
+  </si>
+  <si>
+    <t>Martin - Thomas</t>
+  </si>
+  <si>
+    <t>Dependiendo de las pruebas unitarias se deben hacer sus respectivos mensajes de alerta.</t>
+  </si>
+  <si>
+    <t>REQUISITO</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>No Funcional</t>
+  </si>
+  <si>
+    <t>Caso 1</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Recupera contraseña</t>
+  </si>
+  <si>
+    <t>Ingresar usuario sin contraseña</t>
+  </si>
+  <si>
+    <t>Ingresar contraseña sin usuario</t>
+  </si>
+  <si>
+    <t>Ingresar usuario y contraseña</t>
+  </si>
+  <si>
+    <t>Caso 2</t>
+  </si>
+  <si>
+    <t>Caso 3</t>
+  </si>
+  <si>
+    <t>Caso 4</t>
+  </si>
+  <si>
+    <t>Restablecer</t>
+  </si>
+  <si>
+    <t>Ingresa usuario</t>
+  </si>
+  <si>
+    <t>No ingresa usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario inexistente </t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Boton QR redirecciona</t>
+  </si>
+  <si>
+    <t>Cierre sesión</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Boton redirecciona a inicio</t>
+  </si>
+  <si>
+    <t>Alerta permisos</t>
+  </si>
+  <si>
+    <t>Lee QR</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Quiroga</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Rees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,49 +397,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -346,6 +443,45 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -365,15 +501,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B1:G6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B1:H7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" name="NOMBRE" dataDxfId="5"/>
+    <tableColumn id="3" name="DESCRIPCIÓN" dataDxfId="4"/>
+    <tableColumn id="4" name="DESARROLLADOR" dataDxfId="3"/>
+    <tableColumn id="5" name="COMENTARIOS" dataDxfId="2"/>
+    <tableColumn id="6" name="REQUISITO" dataDxfId="1"/>
+    <tableColumn id="7" name="ESTADO" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B1:G13" totalsRowShown="0">
+  <autoFilter ref="B1:G13"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" name="NOMBRE" dataDxfId="1"/>
-    <tableColumn id="3" name="DESCRIPCIÓN" dataDxfId="2"/>
-    <tableColumn id="4" name="DESARROLLADOR" dataDxfId="5"/>
-    <tableColumn id="5" name="COMENTARIOS" dataDxfId="4"/>
-    <tableColumn id="6" name="ESTADO" dataDxfId="3"/>
+    <tableColumn id="1" name="N°"/>
+    <tableColumn id="2" name="NOMBRE"/>
+    <tableColumn id="3" name="Descripción"/>
+    <tableColumn id="4" name="Prioridad"/>
+    <tableColumn id="5" name="Estado"/>
+    <tableColumn id="6" name="Responsable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -642,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +810,7 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,10 +827,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
         <v>1</v>
       </c>
@@ -688,13 +843,18 @@
       <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -704,13 +864,18 @@
       <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
         <v>3</v>
       </c>
@@ -720,13 +885,18 @@
       <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -736,13 +906,18 @@
       <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
         <v>5</v>
       </c>
@@ -752,21 +927,39 @@
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -774,7 +967,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -792,12 +985,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="22"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>